--- a/DATA_goal/Junction_Flooding_154.xlsx
+++ b/DATA_goal/Junction_Flooding_154.xlsx
@@ -655,103 +655,103 @@
         <v>41586.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>23.93</v>
+        <v>2.39</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>16.61</v>
+        <v>1.66</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.25</v>
+        <v>0.43</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>50.48</v>
+        <v>5.05</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>41.77</v>
+        <v>4.18</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>18.83</v>
+        <v>1.88</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>62.89</v>
+        <v>6.29</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>28.97</v>
+        <v>2.9</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>12.38</v>
+        <v>1.24</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>19.09</v>
+        <v>1.91</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>19.86</v>
+        <v>1.99</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>20.83</v>
+        <v>2.08</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>6.01</v>
+        <v>0.6</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>18.72</v>
+        <v>1.87</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>26.4</v>
+        <v>2.64</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>15.54</v>
+        <v>1.55</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.83</v>
+        <v>0.38</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.61</v>
+        <v>0.26</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>277.64</v>
+        <v>27.76</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>52.16</v>
+        <v>5.22</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>17.28</v>
+        <v>1.73</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>34.74</v>
+        <v>3.47</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>18.05</v>
+        <v>1.81</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.37</v>
+        <v>0.24</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>31.16</v>
+        <v>3.12</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>15.27</v>
+        <v>1.53</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>13.65</v>
+        <v>1.37</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>15.97</v>
+        <v>1.6</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>20.63</v>
+        <v>2.06</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.64</v>
+        <v>0.36</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>55.67</v>
+        <v>5.57</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>9.68</v>
+        <v>0.97</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>21.61</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41586.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>19.99</v>
+        <v>2</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>14.34</v>
+        <v>1.43</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.93</v>
+        <v>0.19</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>42.86</v>
+        <v>4.29</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>35.49</v>
+        <v>3.55</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>15.73</v>
+        <v>1.57</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>61.7</v>
+        <v>6.17</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>24.2</v>
+        <v>2.42</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>10.56</v>
+        <v>1.06</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>16</v>
+        <v>1.6</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>17.1</v>
+        <v>1.71</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>18</v>
+        <v>1.8</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.02</v>
+        <v>0.5</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>15.64</v>
+        <v>1.56</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>22.16</v>
+        <v>2.22</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>13.23</v>
+        <v>1.32</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.67</v>
+        <v>0.17</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.17</v>
+        <v>0.12</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>230.75</v>
+        <v>23.07</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>43.77</v>
+        <v>4.38</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>14.44</v>
+        <v>1.44</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>29.24</v>
+        <v>2.92</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>15.53</v>
+        <v>1.55</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.98</v>
+        <v>0.2</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>29.6</v>
+        <v>2.96</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>12.75</v>
+        <v>1.28</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>11.44</v>
+        <v>1.14</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>13.4</v>
+        <v>1.34</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>17.92</v>
+        <v>1.79</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.29</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>55.79</v>
+        <v>5.58</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>8.09</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>18.05</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41586.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>22.68</v>
+        <v>2.27</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>16.59</v>
+        <v>1.66</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.53</v>
+        <v>0.15</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>48.93</v>
+        <v>4.89</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>40.5</v>
+        <v>4.05</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>17.84</v>
+        <v>1.78</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>69.51000000000001</v>
+        <v>6.95</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>27.46</v>
+        <v>2.75</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>12.13</v>
+        <v>1.21</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>18.24</v>
+        <v>1.82</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>19.61</v>
+        <v>1.96</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>20.66</v>
+        <v>2.07</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.7</v>
+        <v>0.57</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>17.75</v>
+        <v>1.77</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>25.22</v>
+        <v>2.52</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>14.95</v>
+        <v>1.49</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.14</v>
+        <v>0.11</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>262.79</v>
+        <v>26.28</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>49.63</v>
+        <v>4.96</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>16.38</v>
+        <v>1.64</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>33.31</v>
+        <v>3.33</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>17.69</v>
+        <v>1.77</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.26</v>
+        <v>0.23</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>33.51</v>
+        <v>3.35</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>14.47</v>
+        <v>1.45</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>12.88</v>
+        <v>1.29</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>15.12</v>
+        <v>1.51</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>20.59</v>
+        <v>2.06</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>62.85</v>
+        <v>6.29</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>9.23</v>
+        <v>0.92</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>20.48</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41586.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>12.78</v>
+        <v>1.28</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.27</v>
+        <v>0.93</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.98</v>
+        <v>0.1</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>27.5</v>
+        <v>2.75</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>22.78</v>
+        <v>2.28</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>10.06</v>
+        <v>1.01</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>42.21</v>
+        <v>4.22</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>15.47</v>
+        <v>1.55</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.81</v>
+        <v>0.68</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10.23</v>
+        <v>1.02</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>11.04</v>
+        <v>1.1</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>11.59</v>
+        <v>1.16</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.21</v>
+        <v>0.32</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>14.2</v>
+        <v>1.42</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>8.5</v>
+        <v>0.85</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>144.91</v>
+        <v>14.49</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>28.06</v>
+        <v>2.81</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>9.23</v>
+        <v>0.92</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>18.76</v>
+        <v>1.88</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>10.01</v>
+        <v>1</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.25</v>
+        <v>0.13</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>19.87</v>
+        <v>1.99</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>8.15</v>
+        <v>0.82</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.3</v>
+        <v>0.73</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>8.56</v>
+        <v>0.86</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>11.59</v>
+        <v>1.16</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>38.25</v>
+        <v>3.83</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.17</v>
+        <v>0.52</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>11.54</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41586.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>2.88</v>
+        <v>0.29</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.9</v>
+        <v>0.19</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>6.03</v>
+        <v>0.6</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>5.02</v>
+        <v>0.5</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>2.27</v>
+        <v>0.23</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>14.29</v>
+        <v>1.43</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>3.49</v>
+        <v>0.35</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>1.52</v>
+        <v>0.15</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>2.21</v>
+        <v>0.22</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>2.43</v>
+        <v>0.24</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>2.49</v>
+        <v>0.25</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>2.26</v>
+        <v>0.23</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>3.23</v>
+        <v>0.32</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>2.06</v>
+        <v>0.21</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>27.08</v>
+        <v>2.71</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>6.64</v>
+        <v>0.66</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>2.08</v>
+        <v>0.21</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>4.38</v>
+        <v>0.44</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>2.38</v>
+        <v>0.24</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>6.28</v>
+        <v>0.63</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>1.84</v>
+        <v>0.18</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>1.74</v>
+        <v>0.17</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>2.02</v>
+        <v>0.2</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>2.55</v>
+        <v>0.26</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>13.22</v>
+        <v>1.32</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>2.61</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41586.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>11.82</v>
+        <v>1.18</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>8.66</v>
+        <v>0.87</v>
       </c>
       <c r="D7" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="L7" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="M7" s="4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N7" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O7" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="P7" s="4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="Q7" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="R7" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="S7" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>13.34</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="W7" s="4" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="X7" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="Y7" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA7" s="4" t="n">
         <v>0.75</v>
       </c>
-      <c r="E7" s="4" t="n">
-        <v>25.51</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>21.12</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>33.33</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>14.31</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>9.49</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>10.77</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="S7" s="4" t="n">
+      <c r="AB7" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AC7" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AD7" s="4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AE7" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AF7" s="4" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AG7" s="4" t="n">
         <v>0.48</v>
       </c>
-      <c r="T7" s="4" t="n">
-        <v>133.42</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>25.72</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>17.23</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>9.24</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>16.24</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>7.54</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>7.89</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>10.78</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>29.77</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>4.79</v>
-      </c>
       <c r="AH7" s="4" t="n">
-        <v>10.67</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41586.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>14.89</v>
+        <v>1.49</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>11</v>
+        <v>1.1</v>
       </c>
       <c r="D8" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J8" s="4" t="n">
         <v>0.8</v>
       </c>
-      <c r="E8" s="4" t="n">
-        <v>32.22</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>26.67</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>11.72</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>44.58</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>18.03</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>8.01</v>
-      </c>
       <c r="K8" s="4" t="n">
-        <v>12</v>
+        <v>1.2</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>12.96</v>
+        <v>1.3</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>13.63</v>
+        <v>1.36</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>3.74</v>
+        <v>0.37</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>11.65</v>
+        <v>1.17</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>16.59</v>
+        <v>1.66</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>9.800000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.55</v>
+        <v>0.06</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>170.07</v>
+        <v>17.01</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>32.58</v>
+        <v>3.26</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>10.76</v>
+        <v>1.08</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>21.91</v>
+        <v>2.19</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>11.64</v>
+        <v>1.16</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.48</v>
+        <v>0.15</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>21.77</v>
+        <v>2.18</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>9.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>8.42</v>
+        <v>0.84</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>9.9</v>
+        <v>0.99</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>13.62</v>
+        <v>1.36</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>40.37</v>
+        <v>4.04</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>6.07</v>
+        <v>0.61</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>13.45</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41586.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>5.86</v>
+        <v>0.59</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>4.24</v>
+        <v>0.42</v>
       </c>
       <c r="D9" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G9" s="4" t="n">
         <v>0.46</v>
       </c>
-      <c r="E9" s="4" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>10.44</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>4.61</v>
-      </c>
       <c r="H9" s="4" t="n">
-        <v>21.73</v>
+        <v>2.17</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>7.1</v>
+        <v>0.71</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>3.14</v>
+        <v>0.31</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>4.67</v>
+        <v>0.47</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>5.09</v>
+        <v>0.51</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>5.31</v>
+        <v>0.53</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>1.48</v>
+        <v>0.15</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>4.59</v>
+        <v>0.46</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>6.54</v>
+        <v>0.65</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>3.93</v>
+        <v>0.39</v>
       </c>
       <c r="R9" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S9" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T9" s="4" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="U9" s="4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V9" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="W9" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="X9" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="Y9" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Z9" s="4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AA9" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AB9" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AC9" s="4" t="n">
         <v>0.39</v>
       </c>
-      <c r="S9" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>62.52</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>13.02</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>8.710000000000001</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>10.12</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>3.94</v>
-      </c>
       <c r="AD9" s="4" t="n">
-        <v>5.34</v>
+        <v>0.53</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>19.94</v>
+        <v>1.99</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>2.35</v>
+        <v>0.24</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>5.29</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41586.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>16.81</v>
+        <v>1.68</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>12.49</v>
+        <v>1.25</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.79</v>
+        <v>0.08</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>36.44</v>
+        <v>3.64</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>30.15</v>
+        <v>3.02</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>13.23</v>
+        <v>1.32</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>48.6</v>
+        <v>4.86</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>20.36</v>
+        <v>2.04</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>9.07</v>
+        <v>0.91</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>13.58</v>
+        <v>1.36</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>14.66</v>
+        <v>1.47</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>15.43</v>
+        <v>1.54</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>4.23</v>
+        <v>0.42</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>13.16</v>
+        <v>1.32</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>18.74</v>
+        <v>1.87</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>11.02</v>
+        <v>1.1</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>192.95</v>
+        <v>19.3</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>36.71</v>
+        <v>3.67</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>12.15</v>
+        <v>1.21</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>24.74</v>
+        <v>2.47</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>13.13</v>
+        <v>1.31</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.68</v>
+        <v>0.17</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>23.91</v>
+        <v>2.39</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>10.73</v>
+        <v>1.07</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>9.48</v>
+        <v>0.95</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>11.15</v>
+        <v>1.11</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>15.4</v>
+        <v>1.54</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>43.84</v>
+        <v>4.38</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>6.87</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>15.19</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_154.xlsx
+++ b/DATA_goal/Junction_Flooding_154.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,33 +444,33 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -652,367 +652,367 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41586.34027777778</v>
+        <v>44835.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.39</v>
+        <v>2.21</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.66</v>
+        <v>1.52</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>5.05</v>
+        <v>4.64</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>4.18</v>
+        <v>3.84</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.88</v>
+        <v>1.74</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>6.29</v>
+        <v>5.73</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.9</v>
+        <v>2.68</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.24</v>
+        <v>1.13</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.99</v>
+        <v>1.84</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.87</v>
+        <v>1.73</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.64</v>
+        <v>2.43</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="R2" s="4" t="n">
         <v>0.38</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>27.76</v>
+        <v>25.59</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>5.22</v>
+        <v>4.81</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.47</v>
+        <v>3.19</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.81</v>
+        <v>1.67</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>3.12</v>
+        <v>2.86</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.53</v>
+        <v>1.41</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>2.06</v>
+        <v>1.91</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0.36</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.57</v>
+        <v>5.06</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.97</v>
+        <v>0.89</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41586.34722222222</v>
+        <v>44835.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2</v>
+        <v>0.34</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.43</v>
+        <v>0.18</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.19</v>
+        <v>0.14</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.29</v>
+        <v>0.67</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.55</v>
+        <v>0.55</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.57</v>
+        <v>0.26</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>6.17</v>
+        <v>1.67</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.42</v>
+        <v>0.41</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.06</v>
+        <v>0.16</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.6</v>
+        <v>0.24</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.71</v>
+        <v>0.27</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.8</v>
+        <v>0.27</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.5</v>
+        <v>0.09</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.56</v>
+        <v>0.26</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.22</v>
+        <v>0.37</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.32</v>
+        <v>0.25</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.12</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>23.07</v>
+        <v>3.28</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>4.38</v>
+        <v>0.78</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.44</v>
+        <v>0.24</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.92</v>
+        <v>0.49</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.55</v>
+        <v>0.27</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.96</v>
+        <v>0.74</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.28</v>
+        <v>0.21</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.14</v>
+        <v>0.22</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.34</v>
+        <v>0.25</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.79</v>
+        <v>0.27</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>5.58</v>
+        <v>1.54</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.8</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41586.35416666666</v>
+        <v>44835.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.27</v>
+        <v>0.58</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.66</v>
+        <v>0.39</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>4.89</v>
+        <v>1.21</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>4.05</v>
+        <v>1</v>
       </c>
       <c r="G4" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H4" s="4" t="n">
         <v>1.78</v>
       </c>
-      <c r="H4" s="4" t="n">
-        <v>6.95</v>
-      </c>
       <c r="I4" s="4" t="n">
-        <v>2.75</v>
+        <v>0.7</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.21</v>
+        <v>0.29</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.82</v>
+        <v>0.44</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.96</v>
+        <v>0.5</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2.07</v>
+        <v>0.51</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.57</v>
+        <v>0.14</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.77</v>
+        <v>0.45</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.52</v>
+        <v>0.62</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.49</v>
+        <v>0.4</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>26.28</v>
+        <v>6.13</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>4.96</v>
+        <v>1.26</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.64</v>
+        <v>0.42</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>3.33</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.77</v>
+        <v>0.45</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.23</v>
+        <v>0.05</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.35</v>
+        <v>0.82</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.45</v>
+        <v>0.37</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.29</v>
+        <v>0.34</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.51</v>
+        <v>0.4</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.06</v>
+        <v>0.51</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>6.29</v>
+        <v>1.58</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.92</v>
+        <v>0.22</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.05</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41586.36111111111</v>
+        <v>44835.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.28</v>
+        <v>1.15</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.93</v>
+        <v>0.83</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.75</v>
+        <v>2.48</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.28</v>
+        <v>2.05</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.01</v>
+        <v>0.91</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.22</v>
+        <v>3.3</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.68</v>
+        <v>0.61</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.02</v>
+        <v>0.91</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.16</v>
+        <v>1.05</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.32</v>
+        <v>0.29</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.42</v>
+        <v>1.27</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.85</v>
+        <v>0.77</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0.08</v>
@@ -1021,673 +1021,153 @@
         <v>0.06</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>14.49</v>
+        <v>13</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.81</v>
+        <v>2.51</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.88</v>
+        <v>1.68</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.99</v>
+        <v>1.62</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.82</v>
+        <v>0.74</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.73</v>
+        <v>0.66</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.86</v>
+        <v>0.77</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.16</v>
+        <v>1.05</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.83</v>
+        <v>2.96</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.46</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.15</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41586.36805555555</v>
+        <v>44835.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.29</v>
+        <v>11.53</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.19</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.05</v>
+        <v>0.82</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>0.6</v>
+        <v>24.83</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>0.5</v>
+        <v>20.53</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.23</v>
+        <v>9.07</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>1.43</v>
+        <v>35.26</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>0.35</v>
+        <v>13.96</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.15</v>
+        <v>6.15</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0.22</v>
+        <v>9.18</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>0.24</v>
+        <v>10.07</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>0.25</v>
+        <v>10.5</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>2.9</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>0.23</v>
+        <v>9.02</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>0.32</v>
+        <v>12.8</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.21</v>
+        <v>7.68</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.65</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.03</v>
+        <v>0.51</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>2.71</v>
+        <v>130.01</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>0.66</v>
+        <v>25.24</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.21</v>
+        <v>8.33</v>
       </c>
       <c r="W6" s="4" t="n">
+        <v>16.88</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>17.08</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>10.51</v>
+      </c>
+      <c r="AE6" s="4" t="n">
         <v>0.44</v>
       </c>
-      <c r="X6" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="AF6" s="4" t="n">
-        <v>1.32</v>
+        <v>31.91</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.11</v>
+        <v>4.65</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41586.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>13.34</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.07</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41586.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>17.01</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.34</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41586.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41586.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>1.52</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41586.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>21.91</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>16.33</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>47.53</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>39.32</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>17.24</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>66.18000000000001</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>26.53</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>17.72</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>19.11</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>20.14</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>5.51</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>17.14</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>24.47</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>14.31</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>253.63</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>47.94</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>15.82</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>32.37</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>17.09</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>32.35</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>13.98</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>12.32</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>14.49</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>20.08</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>60.05</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>8.970000000000001</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>19.78</v>
+        <v>10.41</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_154.xlsx
+++ b/DATA_goal/Junction_Flooding_154.xlsx
@@ -444,33 +444,33 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -655,103 +655,103 @@
         <v>44835.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.21</v>
+        <v>22.1</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.52</v>
+        <v>15.16</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.42</v>
+        <v>4.21</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.64</v>
+        <v>46.43</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.84</v>
+        <v>38.4</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.74</v>
+        <v>17.39</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.73</v>
+        <v>57.34</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.68</v>
+        <v>26.76</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.13</v>
+        <v>11.34</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.75</v>
+        <v>17.45</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.84</v>
+        <v>18.44</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.93</v>
+        <v>19.3</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.55</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.73</v>
+        <v>17.29</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.43</v>
+        <v>24.3</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.45</v>
+        <v>14.52</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.76</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.46</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>25.59</v>
+        <v>255.89</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.81</v>
+        <v>48.15</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.6</v>
+        <v>15.96</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.19</v>
+        <v>31.89</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.67</v>
+        <v>16.66</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.2</v>
+        <v>2.02</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.86</v>
+        <v>28.59</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.41</v>
+        <v>14.1</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.27</v>
+        <v>12.69</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.48</v>
+        <v>14.85</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.91</v>
+        <v>19.07</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.06</v>
+        <v>50.56</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.89</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2</v>
+        <v>19.96</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44835.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.34</v>
+        <v>3.36</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.83</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.38</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.67</v>
+        <v>6.66</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.55</v>
+        <v>5.52</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.65</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.67</v>
+        <v>16.66</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.41</v>
+        <v>4.07</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.6</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.24</v>
+        <v>2.38</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.27</v>
+        <v>2.73</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.27</v>
+        <v>2.68</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.86</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.63</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.37</v>
+        <v>3.66</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.52</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.51</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>3.28</v>
+        <v>32.83</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.78</v>
+        <v>7.79</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.24</v>
+        <v>2.43</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.49</v>
+        <v>4.91</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.27</v>
+        <v>2.68</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.74</v>
+        <v>7.39</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.15</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.15</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.48</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.27</v>
+        <v>2.73</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.29</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.54</v>
+        <v>15.41</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.3</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44835.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.58</v>
+        <v>5.77</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.39</v>
+        <v>3.88</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.97</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.21</v>
+        <v>12.12</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1</v>
+        <v>10.03</v>
       </c>
       <c r="G4" s="4" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>61.31</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>12.56</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="Y4" s="4" t="n">
         <v>0.45</v>
       </c>
-      <c r="H4" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="Z4" s="4" t="n">
-        <v>0.82</v>
+        <v>8.24</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.37</v>
+        <v>3.68</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.34</v>
+        <v>3.42</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.4</v>
+        <v>3.99</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.51</v>
+        <v>5.12</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.58</v>
+        <v>15.77</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.22</v>
+        <v>2.23</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.52</v>
+        <v>5.21</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44835.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.15</v>
+        <v>11.53</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.83</v>
+        <v>8.32</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.48</v>
+        <v>24.76</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.05</v>
+        <v>20.48</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.91</v>
+        <v>9.07</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.3</v>
+        <v>33.03</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.4</v>
+        <v>13.96</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.61</v>
+        <v>6.1</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.91</v>
+        <v>9.15</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1</v>
+        <v>10.04</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.05</v>
+        <v>10.46</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.29</v>
+        <v>2.9</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.9</v>
+        <v>9.02</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.27</v>
+        <v>12.75</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.77</v>
+        <v>7.71</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.79</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.57</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>13</v>
+        <v>129.99</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.51</v>
+        <v>25.15</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.83</v>
+        <v>8.33</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.68</v>
+        <v>16.76</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.9</v>
+        <v>9.02</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.62</v>
+        <v>16.15</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.74</v>
+        <v>7.36</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.66</v>
+        <v>6.6</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.77</v>
+        <v>7.75</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.05</v>
+        <v>10.48</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.96</v>
+        <v>29.61</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.63</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_154.xlsx
+++ b/DATA_goal/Junction_Flooding_154.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -658,88 +658,88 @@
         <v>22.1</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>15.16</v>
+        <v>15.162</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.21</v>
+        <v>4.209</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>46.43</v>
+        <v>46.427</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>38.4</v>
+        <v>38.398</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>17.39</v>
+        <v>17.391</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>57.34</v>
+        <v>57.345</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>26.76</v>
+        <v>26.759</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>11.34</v>
+        <v>11.337</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>17.45</v>
+        <v>17.452</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>18.44</v>
+        <v>18.439</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>19.3</v>
+        <v>19.302</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.55</v>
+        <v>5.553</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>17.29</v>
+        <v>17.294</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>24.3</v>
+        <v>24.297</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>14.52</v>
+        <v>14.517</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.76</v>
+        <v>3.762</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.46</v>
+        <v>2.458</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>255.89</v>
+        <v>255.893</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>48.15</v>
+        <v>48.146</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>15.96</v>
+        <v>15.963</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>31.89</v>
+        <v>31.894</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>16.66</v>
+        <v>16.657</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.02</v>
+        <v>2.022</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>28.59</v>
+        <v>28.586</v>
       </c>
       <c r="AA2" s="4" t="n">
         <v>14.1</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>12.69</v>
+        <v>12.689</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>14.85</v>
+        <v>14.848</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>19.07</v>
+        <v>19.074</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>3.64</v>
@@ -748,10 +748,10 @@
         <v>50.56</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>8.859999999999999</v>
+        <v>8.856</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>19.96</v>
+        <v>19.957</v>
       </c>
     </row>
     <row r="3">
@@ -759,67 +759,67 @@
         <v>44835.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>3.36</v>
+        <v>3.363</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.83</v>
+        <v>1.834</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.38</v>
+        <v>1.381</v>
       </c>
       <c r="E3" s="4" t="n">
         <v>6.66</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>5.52</v>
+        <v>5.521</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>2.65</v>
+        <v>2.648</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>16.66</v>
+        <v>16.664</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>4.07</v>
+        <v>4.072</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.6</v>
+        <v>1.596</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>2.38</v>
+        <v>2.384</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.73</v>
+        <v>2.728</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.68</v>
+        <v>2.684</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.86</v>
+        <v>0.863</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>2.63</v>
+        <v>2.632</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>3.66</v>
+        <v>3.655</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>2.52</v>
+        <v>2.516</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.51</v>
+        <v>1.509</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0.68</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>32.83</v>
+        <v>32.825</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>7.79</v>
+        <v>7.788</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>2.43</v>
+        <v>2.429</v>
       </c>
       <c r="W3" s="4" t="n">
         <v>4.91</v>
@@ -828,34 +828,34 @@
         <v>2.68</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.17</v>
+        <v>0.166</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>7.39</v>
+        <v>7.388</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>2.15</v>
+        <v>2.146</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.15</v>
+        <v>2.155</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2.48</v>
+        <v>2.476</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.73</v>
+        <v>2.733</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.29</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>15.41</v>
+        <v>15.413</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.2</v>
+        <v>1.204</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>3.04</v>
+        <v>3.042</v>
       </c>
     </row>
     <row r="4">
@@ -863,70 +863,70 @@
         <v>44835.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>5.77</v>
+        <v>5.765</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3.88</v>
+        <v>3.876</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.97</v>
+        <v>0.967</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>12.12</v>
+        <v>12.116</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>10.03</v>
+        <v>10.025</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>4.54</v>
+        <v>4.537</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>17.8</v>
+        <v>17.802</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>6.98</v>
+        <v>6.981</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.9</v>
+        <v>2.901</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>4.41</v>
+        <v>4.414</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>4.96</v>
+        <v>4.958</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>5.06</v>
+        <v>5.063</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.45</v>
+        <v>1.447</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>4.51</v>
+        <v>4.512</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>6.25</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.02</v>
+        <v>4.023</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.99</v>
+        <v>0.991</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.5</v>
+        <v>0.499</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>61.31</v>
+        <v>61.312</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>12.56</v>
+        <v>12.557</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>4.16</v>
+        <v>4.164</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>8.140000000000001</v>
+        <v>8.135</v>
       </c>
       <c r="X4" s="4" t="n">
         <v>4.52</v>
@@ -935,10 +935,10 @@
         <v>0.45</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>8.24</v>
+        <v>8.237</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.68</v>
+        <v>3.678</v>
       </c>
       <c r="AB4" s="4" t="n">
         <v>3.42</v>
@@ -947,19 +947,19 @@
         <v>3.99</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>5.12</v>
+        <v>5.118</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>15.77</v>
+        <v>15.775</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.23</v>
+        <v>2.233</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>5.21</v>
+        <v>5.206</v>
       </c>
     </row>
     <row r="5">
@@ -1063,110 +1063,6 @@
         <v>4.63</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>10.41</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44835.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>11.53</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>8.390000000000001</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>24.83</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>20.53</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>9.07</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>35.26</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>13.96</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>9.18</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>7.68</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>130.01</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>25.24</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>16.88</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>17.08</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>7.72</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>10.51</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>31.91</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="AH6" s="4" t="n">
         <v>10.41</v>
       </c>
     </row>

--- a/DATA_goal/Junction_Flooding_154.xlsx
+++ b/DATA_goal/Junction_Flooding_154.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -970,99 +970,203 @@
         <v>11.53</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>8.32</v>
+        <v>8.324</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>24.76</v>
+        <v>24.765</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>20.48</v>
+        <v>20.478</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>9.07</v>
+        <v>9.074</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>33.03</v>
+        <v>33.027</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>13.96</v>
+        <v>13.961</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>6.1</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>9.15</v>
+        <v>9.147</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10.04</v>
+        <v>10.041</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>10.46</v>
+        <v>10.458</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.9</v>
+        <v>2.897</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>9.02</v>
+        <v>9.023</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>12.75</v>
+        <v>12.749</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.71</v>
+        <v>7.714</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0.79</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.57</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>129.99</v>
+        <v>129.995</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>25.15</v>
+        <v>25.149</v>
       </c>
       <c r="V5" s="4" t="n">
+        <v>8.329000000000001</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>16.761</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>9.023999999999999</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>1.067</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>16.152</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>7.357</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>6.603</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>7.745</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>10.479</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.5620000000000001</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>29.611</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>4.633</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>10.412</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44835.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>8.390000000000001</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>24.83</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>20.53</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>35.26</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>13.96</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>9.18</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>130.01</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>25.24</v>
+      </c>
+      <c r="V6" s="4" t="n">
         <v>8.33</v>
       </c>
-      <c r="W5" s="4" t="n">
-        <v>16.76</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>16.15</v>
-      </c>
-      <c r="AA5" s="4" t="n">
+      <c r="W6" s="4" t="n">
+        <v>16.88</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>17.08</v>
+      </c>
+      <c r="AA6" s="4" t="n">
         <v>7.36</v>
       </c>
-      <c r="AB5" s="4" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>10.48</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>29.61</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="AH5" s="4" t="n">
+      <c r="AB6" s="4" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>10.51</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>31.91</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AH6" s="4" t="n">
         <v>10.41</v>
       </c>
     </row>

--- a/DATA_goal/Junction_Flooding_154.xlsx
+++ b/DATA_goal/Junction_Flooding_154.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -970,203 +970,99 @@
         <v>11.53</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>8.324</v>
+        <v>8.32</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.9429999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>24.765</v>
+        <v>24.76</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>20.478</v>
+        <v>20.48</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>9.074</v>
+        <v>9.07</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>33.027</v>
+        <v>33.03</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>13.961</v>
+        <v>13.96</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>6.1</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>9.147</v>
+        <v>9.15</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10.041</v>
+        <v>10.04</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>10.458</v>
+        <v>10.46</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.897</v>
+        <v>2.9</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>9.023</v>
+        <v>9.02</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>12.749</v>
+        <v>12.75</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.714</v>
+        <v>7.71</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0.79</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.57</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>129.995</v>
+        <v>129.99</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>25.149</v>
+        <v>25.15</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>8.329000000000001</v>
+        <v>8.33</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>16.761</v>
+        <v>16.76</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>9.023999999999999</v>
+        <v>9.02</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.067</v>
+        <v>1.07</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>16.152</v>
+        <v>16.15</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.357</v>
+        <v>7.36</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.603</v>
+        <v>6.6</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.745</v>
+        <v>7.75</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>10.479</v>
+        <v>10.48</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>29.611</v>
+        <v>29.61</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.633</v>
+        <v>4.63</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>10.412</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44835.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>11.53</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>8.390000000000001</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>24.83</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>20.53</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>9.07</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>35.26</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>13.96</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>9.18</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>7.68</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>130.01</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>25.24</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>16.88</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>17.08</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>7.72</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>10.51</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>31.91</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="AH6" s="4" t="n">
         <v>10.41</v>
       </c>
     </row>
